--- a/pred_ohlcv/54_21/2019-10-28 QTUM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 QTUM ohlcv.xlsx
@@ -1094,7 +1094,7 @@
         <v>43615.4056044</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-82518.09484074998</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-81574.59964074998</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-80531.51950834994</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-76000.16920834994</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>7242.545885020074</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>75688.71296523006</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>70241.57366523007</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>78426.04286523006</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>73978.19516523006</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>80805.90136523006</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>105883.5323028501</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>97387.88570285006</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>104950.8316652901</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>116857.7839652901</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>118844.2587652901</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>131727.4474652901</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>139617.0039229501</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>139046.7325229501</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>147383.9460500301</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>143398.7616500301</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>135705.1583500301</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>127463.5903792201</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>120821.3502792201</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>110656.0155792201</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>114840.3395792201</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>114840.3395792201</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>122975.8604792201</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>111684.1864792201</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>115970.7783698401</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>115895.2051373301</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>114532.9558373301</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>139488.9141797501</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>134911.8479797501</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>144685.0729847601</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>159544.4749219001</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>151051.5674630801</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>162841.3402720401</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>160405.5997720401</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>156247.9753204401</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>148469.9070204401</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>150374.1474164401</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>156371.7565164401</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>150458.8985619101</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>162096.5757692001</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>155855.3897764901</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>152286.9758764901</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>152728.3078764901</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>152634.9608764901</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>154295.7299764901</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>154533.7554764901</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>152765.6443764901</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>154215.7846764901</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>154058.6156764901</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>155611.9553764901</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>159850.8502764901</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>156954.4984448001</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>155525.5817448001</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>155682.4728448001</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>150142.2569448001</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>146752.3603448001</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>148187.8696448001</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>145233.3655448001</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>141025.5424448001</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>137463.1330448001</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>140153.6530448001</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>146473.9832854101</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>147809.1247665401</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>144330.1300665401</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>143804.6537665401</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>143294.23386654</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>142456.4864665401</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>144505.7304665401</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>142066.7445665401</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>138798.6809009401</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>160275.21261808</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>160472.61261808</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>161154.25491808</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>161154.25491808</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>161012.77091808</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>162295.98781808</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>162295.98781808</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>160936.27701808</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>160936.27701808</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>161021.37701808</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>161366.12151808</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>161366.12151808</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>151384.8819968799</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>152402.6559968799</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>151894.4093968799</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>152532.4244968799</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>152367.1010968799</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>149420.0017968799</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>148690.4263968799</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>147401.2435968799</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>147401.2435968799</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>221361.3759488798</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>200589.2392488798</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>192853.7010154298</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>195937.4419154298</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>191141.5378154298</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>192151.0100154298</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>203551.0855154298</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>161729.1532154298</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>170026.2170717798</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>187449.2527665898</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>214834.4281042098</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>229429.3890012598</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>240197.2332266998</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>282225.4664921998</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>287003.7500921998</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>299772.9339921998</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>321693.2427210998</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>318688.1148575498</v>
       </c>
       <c r="H790">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>310430.5066216398</v>
       </c>
       <c r="H791">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>317984.4736195398</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>315559.6120195398</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>311086.2176883197</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>318741.9230883197</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>322897.9032883196</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>325946.1060883197</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>331790.6538055897</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>337591.9742679297</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>339391.4602679297</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>313381.1961379597</v>
       </c>
       <c r="H817">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>317953.1782379597</v>
       </c>
       <c r="H818">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>305877.4682428598</v>
       </c>
       <c r="H819">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>310718.2325159198</v>
       </c>
       <c r="H820">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>310718.2325159198</v>
       </c>
       <c r="H821">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>309998.6172159198</v>
       </c>
       <c r="H822">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>323051.9027307298</v>
       </c>
       <c r="H823">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>319048.2012044398</v>
       </c>
       <c r="H824">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>316129.6320044398</v>
       </c>
       <c r="H825">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>322583.9064044398</v>
       </c>
       <c r="H827">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>364923.3917959197</v>
       </c>
       <c r="H831">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>357884.7692338197</v>
       </c>
       <c r="H832">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>346513.1033338197</v>
       </c>
       <c r="H833">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>333452.5214919997</v>
       </c>
       <c r="H834">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>348308.9886376397</v>
       </c>
       <c r="H835">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>340253.7272690497</v>
       </c>
       <c r="H836">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>335805.4006490497</v>
       </c>
       <c r="H837">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>326843.7688490498</v>
       </c>
       <c r="H838">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>326843.7688490498</v>
       </c>
       <c r="H839">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>325560.0798490497</v>
       </c>
       <c r="H840">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>344825.9694105198</v>
       </c>
       <c r="H841">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>347373.2671105198</v>
       </c>
       <c r="H842">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>371220.5089105198</v>
       </c>
       <c r="H843">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>382959.2066381497</v>
       </c>
       <c r="H844">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>376675.7384217698</v>
       </c>
       <c r="H845">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>368529.4123217697</v>
       </c>
       <c r="H846">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>375526.2246217697</v>
       </c>
       <c r="H847">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>369768.5832955798</v>
       </c>
       <c r="H848">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>385378.1888008598</v>
       </c>
       <c r="H849">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>401923.6488879198</v>
       </c>
       <c r="H850">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>399578.6155879198</v>
       </c>
       <c r="H851">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>381074.7283547098</v>
       </c>
       <c r="H852">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>387448.9751580798</v>
       </c>
       <c r="H853">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>399424.3767421198</v>
       </c>
       <c r="H854">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>393272.6797848798</v>
       </c>
       <c r="H855">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>393511.8475848798</v>
       </c>
       <c r="H856">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>391249.9583848799</v>
       </c>
       <c r="H857">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>386678.8705848799</v>
       </c>
       <c r="H858">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>381635.0257848799</v>
       </c>
       <c r="H859">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>404297.9294848799</v>
       </c>
       <c r="H860">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>404297.9294848799</v>
       </c>
       <c r="H861">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>396940.2098848799</v>
       </c>
       <c r="H862">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>392115.9247848799</v>
       </c>
       <c r="H863">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>393989.6140257999</v>
       </c>
       <c r="H864">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>400393.7014125199</v>
       </c>
       <c r="H865">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>399086.0569125199</v>
       </c>
       <c r="H866">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>389963.7573125199</v>
       </c>
       <c r="H867">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>389963.7573125199</v>
       </c>
       <c r="H868">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>392461.0544125199</v>
       </c>
       <c r="H869">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>389397.5138002199</v>
       </c>
       <c r="H870">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>385651.5010002199</v>
       </c>
       <c r="H871">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>390376.3542002199</v>
       </c>
       <c r="H872">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>387136.4693527799</v>
       </c>
       <c r="H873">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>390762.1052527799</v>
       </c>
       <c r="H874">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>393942.6869527799</v>
       </c>
       <c r="H875">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>394632.0317527799</v>
       </c>
       <c r="H876">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>394413.8417527799</v>
       </c>
       <c r="H877">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>404284.2731317799</v>
       </c>
       <c r="H878">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>406173.2414527799</v>
       </c>
       <c r="H879">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>409762.3801527799</v>
       </c>
       <c r="H880">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>408418.8019527799</v>
       </c>
       <c r="H881">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>409274.5421527799</v>
       </c>
       <c r="H882">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>411715.0409527799</v>
       </c>
       <c r="H883">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>408268.9610527799</v>
       </c>
       <c r="H884">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>406031.32195278</v>
       </c>
       <c r="H885">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>404145.36655278</v>
       </c>
       <c r="H886">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>401576.10555278</v>
       </c>
       <c r="H887">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>394107.88185278</v>
       </c>
       <c r="H888">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>399864.48489206</v>
       </c>
       <c r="H936">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>399864.48489206</v>
       </c>
       <c r="H937">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>399864.48489206</v>
       </c>
       <c r="H938">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>399864.48489206</v>
       </c>
       <c r="H939">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>399266.4567920601</v>
       </c>
       <c r="H940">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>396397.5586920601</v>
       </c>
       <c r="H941">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>396397.5586920601</v>
       </c>
       <c r="H942">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>395363.39759206</v>
       </c>
       <c r="H944">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>394642.13889206</v>
       </c>
       <c r="H945">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>395177.6117920601</v>
       </c>
       <c r="H947">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>395209.3788920601</v>
       </c>
       <c r="H948">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>394990.9025920601</v>
       </c>
       <c r="H949">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>393357.5590341401</v>
       </c>
       <c r="H950">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>389444.1290682101</v>
       </c>
       <c r="H951">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>391492.5450682101</v>
       </c>
       <c r="H952">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>389840.9479682101</v>
       </c>
       <c r="H953">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>389151.3709682101</v>
       </c>
       <c r="H954">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>389534.4679682101</v>
       </c>
       <c r="H955">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>389080.3794682101</v>
       </c>
       <c r="H956">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>387232.3698682101</v>
       </c>
       <c r="H957">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>385800.5434682101</v>
       </c>
       <c r="H958">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>379400.7329682101</v>
       </c>
       <c r="H966">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -31826,7 +31826,7 @@
         <v>397140.1431226303</v>
       </c>
       <c r="H1209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1210" spans="1:8">
@@ -32008,7 +32008,7 @@
         <v>395446.8656226303</v>
       </c>
       <c r="H1216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1217" spans="1:8">
@@ -32060,7 +32060,7 @@
         <v>389879.4414226303</v>
       </c>
       <c r="H1218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-28 QTUM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 QTUM ohlcv.xlsx
@@ -1120,7 +1120,7 @@
         <v>46312.50860440001</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-80215.84454074998</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-82008.58904074998</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-83497.39334074999</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-86292.06844074998</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-89590.71094074998</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-89935.05564074998</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-91962.69214074998</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-91315.74934074997</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-91037.44934074997</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-90277.87674074997</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-91421.41624074997</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-96364.82234074998</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-76000.16920834994</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-73767.09900834993</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-71535.25950834993</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-71535.25950834993</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-72891.84684144994</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-68124.21367454993</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-61066.72552461993</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-43582.61748443993</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>7242.545885020074</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>75688.71296523006</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>70241.57366523007</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>78426.04286523006</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>73978.19516523006</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>80805.90136523006</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>105883.5323028501</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>97387.88570285006</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>104950.8316652901</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>116857.7839652901</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>118844.2587652901</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>131727.4474652901</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>139617.0039229501</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>139046.7325229501</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>147383.9460500301</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>143398.7616500301</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>135705.1583500301</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>127463.5903792201</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>120821.3502792201</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>110656.0155792201</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>114840.3395792201</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>114840.3395792201</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>122975.8604792201</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>111684.1864792201</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>115970.7783698401</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>115895.2051373301</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>114532.9558373301</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>139488.9141797501</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>134911.8479797501</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>144685.0729847601</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>159544.4749219001</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>151051.5674630801</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>162841.3402720401</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>160405.5997720401</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>156247.9753204401</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>148469.9070204401</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>150374.1474164401</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>156371.7565164401</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>150458.8985619101</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>162096.5757692001</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>155855.3897764901</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>152286.9758764901</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>152728.3078764901</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>152634.9608764901</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>154295.7299764901</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>154533.7554764901</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>152765.6443764901</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>154215.7846764901</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>154058.6156764901</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>155611.9553764901</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>159850.8502764901</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>156954.4984448001</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>155525.5817448001</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>155682.4728448001</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>150142.2569448001</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>146752.3603448001</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>148187.8696448001</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>145233.3655448001</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>141025.5424448001</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>137463.1330448001</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>140153.6530448001</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>146473.9832854101</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>147809.1247665401</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>144330.1300665401</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>143804.6537665401</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>143294.23386654</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>142456.4864665401</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>144505.7304665401</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>142066.7445665401</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>138798.6809009401</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>160275.21261808</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>160472.61261808</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>161154.25491808</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>161154.25491808</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>161012.77091808</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>162295.98781808</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>162295.98781808</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>160936.27701808</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>160936.27701808</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>161021.37701808</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>161366.12151808</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>161366.12151808</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>151384.8819968799</v>
       </c>
       <c r="H690">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>152402.6559968799</v>
       </c>
       <c r="H691">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>151894.4093968799</v>
       </c>
       <c r="H692">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>152532.4244968799</v>
       </c>
       <c r="H695">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>152367.1010968799</v>
       </c>
       <c r="H698">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>149420.0017968799</v>
       </c>
       <c r="H699">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>148690.4263968799</v>
       </c>
       <c r="H700">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>147401.2435968799</v>
       </c>
       <c r="H702">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>147401.2435968799</v>
       </c>
       <c r="H703">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>221361.3759488798</v>
       </c>
       <c r="H769">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>200589.2392488798</v>
       </c>
       <c r="H770">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>192853.7010154298</v>
       </c>
       <c r="H771">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>195937.4419154298</v>
       </c>
       <c r="H772">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>191141.5378154298</v>
       </c>
       <c r="H773">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>192151.0100154298</v>
       </c>
       <c r="H774">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>203551.0855154298</v>
       </c>
       <c r="H775">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>161729.1532154298</v>
       </c>
       <c r="H776">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>170026.2170717798</v>
       </c>
       <c r="H777">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>187449.2527665898</v>
       </c>
       <c r="H778">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>214834.4281042098</v>
       </c>
       <c r="H779">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>229429.3890012598</v>
       </c>
       <c r="H780">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>240197.2332266998</v>
       </c>
       <c r="H781">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>282225.4664921998</v>
       </c>
       <c r="H782">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>287003.7500921998</v>
       </c>
       <c r="H783">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>299772.9339921998</v>
       </c>
       <c r="H784">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>321693.2427210998</v>
       </c>
       <c r="H785">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>317984.4736195398</v>
       </c>
       <c r="H795">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>315559.6120195398</v>
       </c>
       <c r="H796">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>311086.2176883197</v>
       </c>
       <c r="H802">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>317032.8230883197</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>313381.1961379597</v>
       </c>
       <c r="H817">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>317953.1782379597</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>305877.4682428598</v>
       </c>
       <c r="H819">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>310718.2325159198</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>310718.2325159198</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>323051.9027307298</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>319048.2012044398</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>316129.6320044398</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>316129.6320044398</v>
       </c>
       <c r="H826">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>322583.9064044398</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>328643.6183044398</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>340290.0871044397</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>342321.3223755998</v>
       </c>
       <c r="H830">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>364923.3917959197</v>
       </c>
       <c r="H831">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>357884.7692338197</v>
       </c>
       <c r="H832">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>346513.1033338197</v>
       </c>
       <c r="H833">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>333452.5214919997</v>
       </c>
       <c r="H834">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>348308.9886376397</v>
       </c>
       <c r="H835">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>340253.7272690497</v>
       </c>
       <c r="H836">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>335805.4006490497</v>
       </c>
       <c r="H837">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>326843.7688490498</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>326843.7688490498</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>325560.0798490497</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>344825.9694105198</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>347373.2671105198</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>371220.5089105198</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>382959.2066381497</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>376675.7384217698</v>
       </c>
       <c r="H845">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>368529.4123217697</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>375526.2246217697</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>369768.5832955798</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>385378.1888008598</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>401923.6488879198</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>399578.6155879198</v>
       </c>
       <c r="H851">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>381074.7283547098</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>387448.9751580798</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>399424.3767421198</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>393272.6797848798</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>393511.8475848798</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>391249.9583848799</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>386678.8705848799</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>381635.0257848799</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>404297.9294848799</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>404297.9294848799</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>396940.2098848799</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>392115.9247848799</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>393989.6140257999</v>
       </c>
       <c r="H864">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>400393.7014125199</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>399086.0569125199</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>389963.7573125199</v>
       </c>
       <c r="H867">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>389963.7573125199</v>
       </c>
       <c r="H868">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>392461.0544125199</v>
       </c>
       <c r="H869">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>394413.8417527799</v>
       </c>
       <c r="H877">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>404284.2731317799</v>
       </c>
       <c r="H878">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>409762.3801527799</v>
       </c>
       <c r="H880">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -31826,7 +31826,7 @@
         <v>397140.1431226303</v>
       </c>
       <c r="H1209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1210" spans="1:8">
@@ -32008,7 +32008,7 @@
         <v>395446.8656226303</v>
       </c>
       <c r="H1216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1217" spans="1:8">
@@ -32060,7 +32060,7 @@
         <v>389879.4414226303</v>
       </c>
       <c r="H1218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
